--- a/data/trans_bre/P12B1_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,61</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,64</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>44,15%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22,73%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37,81%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-8,77%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 33,28</t>
+          <t>-2,18; 3,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 25,34</t>
+          <t>-0,74; 4,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 40,96</t>
+          <t>-1,28; 3,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 28,38</t>
+          <t>-1,57; 4,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 91,96</t>
+          <t>-2,13; 3,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 58,6</t>
+          <t>-4,09; 2,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 126,15</t>
+          <t>-33,22; 107,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 65,39</t>
+          <t>-14,68; 137,59</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-25,11; 90,41</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-30,72; 146,49</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-31,67; 73,55</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-43,98; 48,1</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,93</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,22</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,19%</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>61,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>88,71%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>96,48%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>106,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>62,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-23,24%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 31,76</t>
+          <t>-1,33; 6,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 43,4</t>
+          <t>0,39; 5,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 32,65</t>
+          <t>0,93; 8,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 27,44</t>
+          <t>0,35; 10,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 71,25</t>
+          <t>-1,89; 11,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 135,03</t>
+          <t>-4,14; 2,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 91,66</t>
+          <t>-28,09; 232,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 50,72</t>
+          <t>7,1; 255,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 262,57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 377,61</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-28,05; 305,89</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-83,24; 230,27</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,14</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,82%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>71,39%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,86%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,21</t>
+          <t>-4,17; 12,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 66,18</t>
+          <t>-7,01; 8,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 28,07</t>
+          <t>-2,01; 12,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-6,77; 8,23</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 71,73</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 226,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 45,63</t>
+          <t>-38,05; 223,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-53,35; 126,39</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-24,33; 272,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-89,17; 334,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,92</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,88</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>46,41%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>55,08%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>56,55%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-9,25%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 24,87</t>
+          <t>-0,22; 4,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 27,93</t>
+          <t>0,31; 3,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 28,14</t>
+          <t>0,67; 4,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 24,91</t>
+          <t>0,3; 5,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 50,29</t>
+          <t>-0,97; 4,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 62,77</t>
+          <t>-3,24; 2,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 68,01</t>
+          <t>-6,95; 98,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 53,17</t>
+          <t>4,58; 108,66</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12,08; 116,44</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 158,05</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-15,74; 88,86</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-40,87; 46,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12B1_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>19,03%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>44,15%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>22,73%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>37,81%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>12,86%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-8,77%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.010128690744606</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.779385782235619</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.072681384627129</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.769783704986496</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7206595685389574</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.5621822419070375</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2068929622660797</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.42042881198085</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2390518265352298</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4300487697350691</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1286226474763393</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.07747685732138522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 3,64</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 4,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 3,19</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 4,3</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 3,37</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 2,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-33,22; 107,37</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-14,68; 137,59</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-25,11; 90,41</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-30,72; 146,49</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-31,67; 73,55</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-43,98; 48,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.175332218339387</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.8968167441002914</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.252246240538635</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.321869007863089</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.126342023745851</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-3.968297920727861</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3346331945179812</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.164082748557007</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2399309226273693</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3025611746614274</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.3166786253192539</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.4349445287594615</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.869186062402816</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.962381105573957</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.232482895524717</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.977482528226972</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.366984151177828</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.62563299508472</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.139130946298289</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.32637607507518</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.9138963816182439</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.627493242129229</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.7355162834668315</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.4836238255633877</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,26</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,98</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>61,78%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>88,71%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>96,48%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>106,52%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>62,8%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-23,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 6,97</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 5,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 8,29</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 10,99</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 11,37</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 2,62</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-28,09; 232,23</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>7,1; 255,47</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>12,58; 262,57</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 377,61</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-28,05; 305,89</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-83,24; 230,27</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.678938665542998</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.975179017388608</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.589442944936082</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.919909706794551</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.981199718935251</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.6262457148051588</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6013953568748236</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9677966631567849</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.9175514769709375</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.9936191588345943</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.6280075002121317</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.2052278925289139</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,69</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,28</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>43,7%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>71,39%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-2,86%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.578240275701383</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.5435798986182558</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.6948658051967306</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.2229811467160803</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1.885924360319138</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-3.865946060906899</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3123762784740596</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1063302068246479</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.08822296304649317</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.03843301534757997</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2804672167880464</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.8242636488092709</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 12,3</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 8,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 12,24</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,77; 8,23</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-38,05; 223,72</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-53,35; 126,39</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-24,33; 272,9</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-89,17; 334,04</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.480933130792903</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.445528797960162</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.46128210213191</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.761865856082807</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>11.36511755190836</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>2.749255583429803</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.254316759891122</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.711688595840668</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.377824455623416</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.462499104218457</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>3.058932644984008</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.432152152756415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>37,61%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>46,41%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>55,08%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>56,55%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>24,37%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-9,25%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.484620009920627</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.309633746976431</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.186231925861999</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.2318390485872145</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.2780172343067022</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1360272542059123</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.7355419411648677</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.04150655744689868</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 4,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 3,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 4,51</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 5,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 4,18</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 2,22</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; 98,48</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,58; 108,66</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>12,08; 116,44</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 158,05</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-15,74; 88,86</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-40,87; 46,91</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.837612161209209</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.274596117504548</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.895044725812742</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.838514340724096</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.5585569155817883</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5074186722286386</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2280045127643873</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8974725659759882</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.79918600203877</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.639620297832721</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.89020512818102</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.963592360001923</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.970048664145341</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.399597800789904</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.72963499281341</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>3.345435360163642</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.79602132946784</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.154421410684688</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.49519543997001</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.372352346245436</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.40838025037964</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.5011168746758693</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3450224447221918</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4862448546568983</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.5459604801527663</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5616966865924601</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.2436921862824159</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.08035608128286438</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.6109306692908762</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3543481023899008</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.6802687415347046</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1766452735317153</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.9742206941647797</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-3.05920729457536</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1096442436610997</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.06208642411705638</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1168935532791638</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.02606713167971319</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1574015671597737</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3978139802620396</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.048505256899209</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.018608634962771</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.387944129333361</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.958965703883512</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.177455048591004</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.262963758514644</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.9745840013944305</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.162998026622533</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.134976299872607</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.485832357654068</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.8885501048791461</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.4636765767120858</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
